--- a/python_work/1006/data.xlsx
+++ b/python_work/1006/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,19 +464,90 @@
           <t>대구</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>맑음</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sadf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>qwe</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>zxc</t>
         </is>
       </c>
     </row>

--- a/python_work/1006/data.xlsx
+++ b/python_work/1006/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,49 +503,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>qwe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>asdf</t>
+          <t>asd</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>sadf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>zxc</t>
         </is>

--- a/python_work/1006/data.xlsx
+++ b/python_work/1006/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,18 +461,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>대구</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30</v>
+          <t>zz</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>aa</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ss</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>dd</t>
         </is>
       </c>
     </row>
@@ -482,47 +486,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>qq</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>www</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>qwe</t>
+          <t>eee</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>qwe</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>qwe</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>asd</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>zxc</t>
+          <t>rrr</t>
         </is>
       </c>
     </row>
